--- a/SourceCode/2024/March2024/sampath/task 15/input.xlsx
+++ b/SourceCode/2024/March2024/sampath/task 15/input.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sampa\Documents\RPA-Developer-in-30-Days\SourceCode\2024\March2024\sampath\task 15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E3D1FB-73F4-437F-9A72-F73000D6B684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465770F3-F1B0-4D55-A3FD-3307C8B2EBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
     <t>rames</t>
   </si>
   <si>
-    <t>sandeep ramesh karne</t>
+    <t>sandeep  rames karne</t>
   </si>
   <si>
     <t>sai</t>
@@ -394,6 +394,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
